--- a/Automation/Scrapping/files/excel_copy.xlsx
+++ b/Automation/Scrapping/files/excel_copy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,174 +434,136 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Disability Category</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Disability Category</t>
+          <t>Participants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Participants</t>
+          <t>Ballots Completed</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ballots Completed</t>
+          <t>Ballots Incomplete/Terminated</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ballots Incomplete/Terminated</t>
+          <t>Results - Accuracy</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Results - Accuracy</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Results - Time to complete</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Blind</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>34.5%, n=1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>34.5%, n=1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>1199 sec, n=1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Low Vision</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>98.3% n=2 (97.7%, n=3)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>98.3% n=2 
-(97.7%, n=3)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1716 sec, n=3 
-(1934 sec, n=2)</t>
+          <t>1716 sec, n=3 (1934 sec, n=2)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Dexterity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>98.3%, n=4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>98.3%, n=4</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>1672.1 sec, n=4</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Mobility</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mobility</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95.4%, n=3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>95.4%, n=3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>1416 sec, n=3</t>
         </is>
